--- a/Scealextric/DATA/Twitter top 100 users.xlsx
+++ b/Scealextric/DATA/Twitter top 100 users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>katyperry</t>
   </si>
@@ -101,9 +101,6 @@
     <t>KAKA</t>
   </si>
   <si>
-    <t>OfficialAdele</t>
-  </si>
-  <si>
     <t>BillGates</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>neymarjr</t>
   </si>
   <si>
-    <t>EmWatson</t>
-  </si>
-  <si>
     <t>davidguetta</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>chrisbrown</t>
   </si>
   <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
     <t>edsheeran</t>
   </si>
   <si>
@@ -278,9 +269,6 @@
     <t>andresiniesta8</t>
   </si>
   <si>
-    <t>carlyraejepson</t>
-  </si>
-  <si>
     <t>ZacEfron</t>
   </si>
   <si>
@@ -290,9 +278,6 @@
     <t>LucianoHuck</t>
   </si>
   <si>
-    <t>3girardpique</t>
-  </si>
-  <si>
     <t>radityadika</t>
   </si>
   <si>
@@ -302,31 +287,37 @@
     <t>juanes</t>
   </si>
   <si>
-    <t> iamdiddy</t>
-  </si>
-  <si>
-    <t> KDtrey5</t>
-  </si>
-  <si>
-    <t> Ludacris</t>
-  </si>
-  <si>
-    <t> أحمد الشقيري</t>
-  </si>
-  <si>
-    <t> paurubio</t>
-  </si>
-  <si>
-    <t> DaniloGentilo</t>
-  </si>
-  <si>
-    <t> kelly_Clarkson</t>
-  </si>
-  <si>
-    <t> Usher</t>
-  </si>
-  <si>
-    <t> paulocoelho</t>
+    <t>paulocoelho</t>
+  </si>
+  <si>
+    <t>Usher</t>
+  </si>
+  <si>
+    <t>kelly_Clarkson</t>
+  </si>
+  <si>
+    <t>DaniloGentilo</t>
+  </si>
+  <si>
+    <t>paurubio</t>
+  </si>
+  <si>
+    <t>Ludacris</t>
+  </si>
+  <si>
+    <t>KDtrey5</t>
+  </si>
+  <si>
+    <t>iamdiddy</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>carlyraejepsen</t>
+  </si>
+  <si>
+    <t>3gerardpique</t>
   </si>
 </sst>
 </file>
@@ -649,11 +640,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1028,266 +1022,266 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
@@ -1301,57 +1295,48 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
     </row>
